--- a/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
+++ b/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>51521936+3</t>
+  </si>
+  <si>
+    <t>51522385</t>
+  </si>
+  <si>
+    <t>51522385+2</t>
+  </si>
+  <si>
+    <t>51522385+3</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -402,6 +411,30 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -848,11 +881,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>71</v>
+      <c r="C2" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -871,11 +904,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>71</v>
+      <c r="C3" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
+++ b/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>51522385+3</t>
+  </si>
+  <si>
+    <t>51524030</t>
+  </si>
+  <si>
+    <t>51524030+2</t>
+  </si>
+  <si>
+    <t>51524030+3</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -411,6 +420,10 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -881,11 +894,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>74</v>
+      <c r="C2" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -904,11 +917,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>74</v>
+      <c r="C3" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
+++ b/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -420,6 +420,14 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -894,11 +902,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>77</v>
+      <c r="C2" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -917,11 +925,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>77</v>
+      <c r="C3" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>74</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
+++ b/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>51524030+3</t>
+  </si>
+  <si>
+    <t>51524614</t>
+  </si>
+  <si>
+    <t>51524614+2</t>
+  </si>
+  <si>
+    <t>51524614+3</t>
+  </si>
+  <si>
+    <t>51524698</t>
+  </si>
+  <si>
+    <t>51524698+2</t>
+  </si>
+  <si>
+    <t>51524698+3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -420,6 +438,14 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -902,11 +928,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>74</v>
+      <c r="C2" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -925,11 +951,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>74</v>
+      <c r="C3" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
+++ b/binaries/FCfiles/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -438,6 +438,14 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -928,10 +936,10 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="85" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -951,10 +959,10 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="87" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="12" t="s">
